--- a/optimizations/attribute_counts_by_delta_epsilon.xlsx
+++ b/optimizations/attribute_counts_by_delta_epsilon.xlsx
@@ -11,6 +11,7 @@
     <sheet name="delta_10000" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="delta_15000" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="delta_20000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Summary_Epsilon_5000" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1605,4 +1606,225 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Attribute</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HDI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GINI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Continent</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SexualOrientation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hobby</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RaceEthnicity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UndergradMajor</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dependents</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FormalEducation</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DevType</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HoursComputer</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EducationParents</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>YearsCoding</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>